--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Scleroderma_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Scleroderma_gen_overall.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The lack of any skin thickening or tightening is a strong indicator against Scleroderma, as these changes are typically present.</t>
+          <t>The lack of skin thickening or tightening is a strong indicator against Scleroderma, as it is a primary feature of the disease.</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon significantly reduces the likelihood of Scleroderma, as it is a common early symptom.</t>
+          <t>The absence of Raynaud's phenomenon significantly reduces the likelihood of Scleroderma, as it is commonly associated with the condition.</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of gastrointestinal symptoms suggests that there is no esophageal or intestinal involvement, which is often seen in Scleroderma.</t>
+          <t>A lack of gastrointestinal symptoms suggests that Scleroderma is unlikely, as esophageal involvement is common.</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arthralgia and swelling can occur in Scleroderma due to inflammation and connective tissue involvement.</t>
+          <t>Arthralgia (joint pain) and swelling can occur in Scleroderma, indicating systemic involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of musculoskeletal symptoms makes Scleroderma less likely, as joint involvement is common.</t>
+          <t>The absence of arthralgia or joint swelling is a strong indicator against Scleroderma, as these symptoms are frequently present.</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary involvement, such as interstitial lung disease, is a serious complication of Scleroderma and can present as dyspnea.</t>
+          <t>Shortness of breath can indicate interstitial lung disease, a common complication of Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of pulmonary symptoms such as cough or dyspnea indicates that lung involvement is unlikely, which is a common complication of Scleroderma.</t>
+          <t>The absence of respiratory issues such as shortness of breath or cough suggests that Scleroderma is unlikely, as pulmonary complications are common.</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of any skin or connective tissue disorders in the past makes Scleroderma less likely.</t>
+          <t>A lack of any previous skin or connective tissue disorders suggests a lower likelihood of Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous autoimmune diseases</t>
+          <t>No history of pulmonary complications</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of any autoimmune diseases in the medical history suggests a lower likelihood of Scleroderma.</t>
+          <t>Scleroderma often leads to pulmonary issues; absence of such complications may indicate that Scleroderma is not present.</t>
         </is>
       </c>
     </row>
@@ -662,17 +662,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Immunosuppressive medications are often prescribed for Scleroderma management, indicating a history consistent with this diagnosis.</t>
+          <t>Patients with Scleroderma may have been treated with immunosuppressive medications, indicating a history of autoimmune disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of pulmonary or cardiac issues</t>
+          <t>No previous diagnoses of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Scleroderma often leads to pulmonary or cardiac complications; their absence in history argues against the diagnosis.</t>
+          <t>The absence of Raynaud's phenomenon, which is frequently associated with Scleroderma, suggests a lower likelihood of the disease.</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No use of medications for autoimmune conditions</t>
+          <t>No history of joint pain or arthritis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Not using medications typically prescribed for autoimmune conditions suggests a lower likelihood of Scleroderma.</t>
+          <t>Joint pain or arthritis can be associated with Scleroderma; their absence may indicate that Scleroderma is not present.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No gastrointestinal symptoms reported</t>
+          <t>No use of medications for autoimmune conditions</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gastrointestinal symptoms, which are common in Scleroderma, supports that the condition is not present.</t>
+          <t>A lack of treatment for autoimmune conditions suggests that the patient may not have Scleroderma or other related disorders.</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations with exposure to silica have been associated with a higher risk of developing Scleroderma.</t>
+          <t>Certain occupations with exposure to silica or other toxins are associated with a higher risk of developing Scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Non-smoker status</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Being a non-smoker is associated with a lower risk of developing Scleroderma.</t>
+          <t>Not smoking is associated with a lower risk of developing Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress is thought to exacerbate autoimmune conditions, including Scleroderma.</t>
+          <t>Chronic stress is thought to play a role in the development of autoimmune diseases, including Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -845,19 +845,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Participation in activities that reduce stress may lower the risk of autoimmune diseases, including Scleroderma.</t>
+          <t>Participation in activities that reduce stress may lower the risk of developing autoimmune diseases, including Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of other autoimmune conditions in the patient</t>
+          <t>History of other autoimmune conditions</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Having one autoimmune condition increases the likelihood of developing another, including Scleroderma.</t>
+          <t>Having other autoimmune conditions increases the likelihood of developing Scleroderma due to shared genetic and environmental factors.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of other autoimmune conditions suggests a lower likelihood of developing Scleroderma.</t>
+          <t>Absence of other autoimmune diseases suggests a lower likelihood of developing Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal skin examination suggests the absence of the characteristic skin changes associated with Scleroderma.</t>
+          <t>Normal findings in skin texture and elasticity suggest that Scleroderma is unlikely, as skin changes are a key feature.</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of Raynaud's phenomenon</t>
+          <t>Absence of digital ulcers or skin lesions</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The lack of Raynaud's phenomenon significantly reduces the likelihood of Scleroderma, as it is commonly associated with the disease.</t>
+          <t>The absence of these findings makes Scleroderma less likely, as they are common in affected individuals.</t>
         </is>
       </c>
     </row>
@@ -964,17 +964,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The appearance of telangiectasia on the skin is frequently observed in Scleroderma and supports the diagnosis.</t>
+          <t>The presence of telangiectasia is often seen in Scleroderma and is indicative of vascular changes associated with the disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of digital ulcers or ischemia</t>
+          <t>Normal capillary refill time</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of digital ulcers or ischemic changes indicates a lower likelihood of vascular involvement typical in Scleroderma.</t>
+          <t>A normal capillary refill time indicates good peripheral circulation, which is inconsistent with Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Digital ulcers are often seen in Scleroderma patients due to vascular compromise and are a strong indicator of the disease.</t>
+          <t>Digital ulcers are frequently observed in Scleroderma patients due to poor circulation and skin changes.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal pulmonary examination</t>
+          <t>No signs of pulmonary hypertension on auscultation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal pulmonary examination suggests that there is no pulmonary involvement, which is often seen in Scleroderma.</t>
+          <t>The absence of abnormal lung sounds or signs of pulmonary hypertension suggests that Scleroderma is not present.</t>
         </is>
       </c>
     </row>
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of signs suggestive of pulmonary hypertension can indicate systemic involvement in Scleroderma.</t>
+          <t>Pulmonary hypertension can develop in Scleroderma patients, and its detection during a physical exam supports the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No gastrointestinal symptoms</t>
+          <t>Normal blood pressure and heart rate</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gastrointestinal symptoms, such as dysphagia or reflux, makes Scleroderma less likely, as these are common manifestations.</t>
+          <t>Normal vital signs indicate that there is no significant cardiovascular involvement, which is often seen in Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal results on pulmonary function tests suggest that there is no lung involvement, which is common in Scleroderma.</t>
+          <t>Normal pulmonary function tests suggest that there is no lung involvement, which is often seen in Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Restrictive lung disease is a common pulmonary complication of Scleroderma, supporting the diagnosis.</t>
+          <t>Restrictive lung disease is a common pulmonary complication of Scleroderma, indicating involvement of the lungs.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A negative ANA test is less common in Scleroderma and suggests that an autoimmune process may not be present.</t>
+          <t>A negative ANA test is a strong indicator against the presence of autoimmune diseases like Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Collagen deposition in the skin is a hallmark of Scleroderma, confirming the diagnosis histologically.</t>
+          <t>A skin biopsy revealing collagen deposition is indicative of the fibrotic changes seen in Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal skin biopsy would indicate the absence of collagen deposition, which is characteristic of Scleroderma.</t>
+          <t>A normal skin biopsy indicates the absence of the fibrotic changes characteristic of Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Decreased peristalsis in the esophagus is frequently observed in Scleroderma patients due to smooth muscle involvement.</t>
+          <t>Decreased peristalsis in the esophagus is a common gastrointestinal manifestation of Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal motility studies suggest that there is no esophageal involvement, which is often seen in Scleroderma.</t>
+          <t>Normal esophageal motility studies suggest that there is no gastrointestinal involvement, which is common in Scleroderma.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Scleroderma_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Scleroderma_gen_overall.xlsx
@@ -462,12 +462,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Progressive skin thickening and tightening</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a hallmark symptom of Scleroderma, indicating fibrosis and collagen deposition in the skin.</t>
+          <t>Raynaud's phenomenon is a common early symptom of Scleroderma, characterized by episodes of reduced blood flow to the fingers and toes, often triggered by cold or stress.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,95 +477,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The lack of skin thickening or tightening is a strong indicator against Scleroderma, as it is a primary feature of the disease.</t>
+          <t>The absence of skin changes, particularly skin thickening, makes Scleroderma less likely as it is a key diagnostic criterion.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Skin thickening</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of Raynaud's phenomenon, characterized by color changes in fingers and toes in response to cold or stress, is commonly associated with Scleroderma.</t>
+          <t>Skin thickening, especially of the fingers and hands, is a hallmark of Scleroderma and is often one of the first noticeable symptoms.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of Raynaud's phenomenon</t>
+          <t>No Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon significantly reduces the likelihood of Scleroderma, as it is commonly associated with the condition.</t>
+          <t>The absence of Raynaud's phenomenon, which is present in the majority of Scleroderma cases, reduces the likelihood of this diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms such as dysphagia</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) is frequently reported in Scleroderma due to esophageal involvement.</t>
+          <t>Digital ulcers are a result of severe Raynaud's phenomenon and are indicative of the vascular involvement seen in Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal gastrointestinal function</t>
+          <t>Normal esophageal function</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of gastrointestinal symptoms suggests that Scleroderma is unlikely, as esophageal involvement is common.</t>
+          <t>Normal esophageal function suggests the absence of gastrointestinal involvement, which is common in Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joint pain and swelling</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arthralgia (joint pain) and swelling can occur in Scleroderma, indicating systemic involvement.</t>
+          <t>Difficulty swallowing, or dysphagia, can occur due to esophageal involvement in Scleroderma, where fibrosis affects the esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No joint pain or swelling</t>
+          <t>No digital ulcers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of arthralgia or joint swelling is a strong indicator against Scleroderma, as these symptoms are frequently present.</t>
+          <t>The absence of digital ulcers, which are common in Scleroderma due to vascular issues, suggests a lower likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary symptoms like shortness of breath</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shortness of breath can indicate interstitial lung disease, a common complication of Scleroderma.</t>
+          <t>Telangiectasia, or small dilated blood vessels on the skin, is a common cutaneous manifestation of Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No respiratory symptoms</t>
+          <t>No telangiectasia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of respiratory issues such as shortness of breath or cough suggests that Scleroderma is unlikely, as pulmonary complications are common.</t>
+          <t>The absence of telangiectasia, which is a common skin manifestation in Scleroderma, makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -618,105 +618,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with Scleroderma and occurs more frequently in patients with this condition.</t>
+          <t>Raynaud's phenomenon is a common early symptom in patients with Scleroderma, often preceding other symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of skin or connective tissue disorders</t>
+          <t>No history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of any previous skin or connective tissue disorders suggests a lower likelihood of Scleroderma.</t>
+          <t>The absence of Raynaud's phenomenon makes Scleroderma less likely, as it is a common early symptom.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of autoimmune disorders</t>
+          <t>Previous diagnosis of interstitial lung disease</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with Scleroderma often have a history of other autoimmune diseases, which supports the likelihood of Scleroderma.</t>
+          <t>Interstitial lung disease is frequently associated with Scleroderma, indicating systemic involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of pulmonary complications</t>
+          <t>No history of skin thickening</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scleroderma often leads to pulmonary issues; absence of such complications may indicate that Scleroderma is not present.</t>
+          <t>Skin thickening is a hallmark of Scleroderma, and its absence reduces the likelihood of the disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of immunosuppressive medications</t>
+          <t>History of esophageal dysmotility</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Scleroderma may have been treated with immunosuppressive medications, indicating a history of autoimmune disease.</t>
+          <t>Esophageal dysmotility is a common gastrointestinal manifestation in Scleroderma due to fibrosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous diagnoses of Raynaud's phenomenon</t>
+          <t>No history of esophageal dysmotility</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon, which is frequently associated with Scleroderma, suggests a lower likelihood of the disease.</t>
+          <t>The absence of esophageal dysmotility suggests a lower likelihood of Scleroderma, which often affects the gastrointestinal tract.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of skin changes or thickening</t>
+          <t>Previous diagnosis of pulmonary arterial hypertension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Skin changes, such as thickening or tightening, are hallmark features of Scleroderma and support the diagnosis.</t>
+          <t>Pulmonary arterial hypertension is a serious complication of Scleroderma, reflecting vascular involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of joint pain or arthritis</t>
+          <t>No history of interstitial lung disease</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joint pain or arthritis can be associated with Scleroderma; their absence may indicate that Scleroderma is not present.</t>
+          <t>Without interstitial lung disease, the systemic involvement typical of Scleroderma is less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Previous gastrointestinal issues</t>
+          <t>History of digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gastrointestinal involvement is common in Scleroderma, and a history of such issues can indicate the presence of the disease.</t>
+          <t>Digital ulcers are a result of severe Raynaud's phenomenon and vascular changes in Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No use of medications for autoimmune conditions</t>
+          <t>No history of digital ulcers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A lack of treatment for autoimmune conditions suggests that the patient may not have Scleroderma or other related disorders.</t>
+          <t>The absence of digital ulcers, which are common in Scleroderma, suggests a lower probability of the disease.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scleroderma has a genetic component, and a family history of autoimmune diseases increases the likelihood of developing Scleroderma.</t>
+          <t>A family history of autoimmune diseases increases the likelihood of Scleroderma due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No family history of Scleroderma or related autoimmune diseases</t>
+          <t>No family history of autoimmune diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of family history reduces the likelihood of genetic predisposition to Scleroderma.</t>
+          <t>Absence of autoimmune diseases in the family reduces the likelihood of Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations with exposure to silica or other toxins are associated with a higher risk of developing Scleroderma.</t>
+          <t>Scleroderma is more common in females, suggesting a gender-related predisposition.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No occupational exposure to known risk factors</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of exposure to silica or other environmental toxins decreases the risk of developing Scleroderma.</t>
+          <t>Scleroderma is less common in males, making it less likely in this demographic.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Exposure to silica dust</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Smoking has been linked to an increased risk of developing Scleroderma, particularly in certain populations.</t>
+          <t>Occupational exposure to silica dust is associated with an increased risk of developing Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Non-smoker</t>
+          <t>No exposure to occupational hazards like silica</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not smoking is associated with a lower risk of developing Scleroderma.</t>
+          <t>Lack of exposure to known environmental risk factors like silica dust decreases the risk of Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that lead to chronic stress</t>
+          <t>Family history of Scleroderma</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress is thought to play a role in the development of autoimmune diseases, including Scleroderma.</t>
+          <t>Direct family history of Scleroderma significantly increases the risk due to genetic factors.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engagement in stress-reducing activities</t>
+          <t>Caucasian ethnicity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Participation in activities that reduce stress may lower the risk of developing autoimmune diseases, including Scleroderma.</t>
+          <t>Caucasians have a lower prevalence of Scleroderma compared to other ethnic groups, reducing the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of other autoimmune conditions</t>
+          <t>African American ethnicity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Having other autoimmune conditions increases the likelihood of developing Scleroderma due to shared genetic and environmental factors.</t>
+          <t>African Americans have a higher prevalence of Scleroderma, indicating a possible genetic or environmental predisposition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of other autoimmune diseases</t>
+          <t>No family history of Scleroderma</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of other autoimmune diseases suggests a lower likelihood of developing Scleroderma.</t>
+          <t>The absence of Scleroderma in the family history decreases the genetic predisposition risk.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin thickening and tightening, particularly on the fingers and face</t>
+          <t>Skin thickening, especially of the fingers and hands</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is highly specific for Scleroderma, as it is a hallmark manifestation of the disease.</t>
+          <t>Skin thickening is a hallmark of Scleroderma, particularly when it affects the fingers and hands, known as sclerodactyly.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal skin texture and elasticity</t>
+          <t>Absence of skin thickening</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal findings in skin texture and elasticity suggest that Scleroderma is unlikely, as skin changes are a key feature.</t>
+          <t>The absence of skin thickening, especially in the fingers and hands, makes Scleroderma less likely.</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of Raynaud's phenomenon is common in Scleroderma patients and indicates vascular involvement.</t>
+          <t>Raynaud's phenomenon, characterized by color changes in the fingers and toes upon exposure to cold or stress, is commonly associated with Scleroderma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of digital ulcers or skin lesions</t>
+          <t>Normal capillary refill time</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of these findings makes Scleroderma less likely, as they are common in affected individuals.</t>
+          <t>A normal capillary refill time suggests good peripheral circulation, which is often impaired in Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -964,17 +964,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of telangiectasia is often seen in Scleroderma and is indicative of vascular changes associated with the disease.</t>
+          <t>Telangiectasia, or small dilated blood vessels on the skin, is frequently observed in Scleroderma patients.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal capillary refill time</t>
+          <t>No Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal capillary refill time indicates good peripheral circulation, which is inconsistent with Scleroderma.</t>
+          <t>The absence of Raynaud's phenomenon reduces the likelihood of Scleroderma, as it is a common early symptom.</t>
         </is>
       </c>
     </row>
@@ -986,39 +986,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Digital ulcers are frequently observed in Scleroderma patients due to poor circulation and skin changes.</t>
+          <t>Digital ulcers are often seen in Scleroderma due to poor blood flow and skin changes.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of pulmonary hypertension on auscultation</t>
+          <t>Normal skin texture</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of abnormal lung sounds or signs of pulmonary hypertension suggests that Scleroderma is not present.</t>
+          <t>Normal skin texture without thickening or hardening is not typical of Scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension on physical exam</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can develop in Scleroderma patients, and its detection during a physical exam supports the diagnosis.</t>
+          <t>Calcinosis, the deposition of calcium in the skin, is a common finding in Scleroderma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal blood pressure and heart rate</t>
+          <t>No telangiectasia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal vital signs indicate that there is no significant cardiovascular involvement, which is often seen in Scleroderma.</t>
+          <t>The absence of telangiectasia, which are common in Scleroderma, suggests the condition is less likely.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Positive antinuclear antibody (ANA) test</t>
+          <t>Positive Anti-Scl-70 antibody</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A positive ANA test is commonly found in patients with Scleroderma, indicating an autoimmune process.</t>
+          <t>Anti-Scl-70 antibodies are highly specific for scleroderma, particularly diffuse cutaneous systemic sclerosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Negative anti-Scl-70 antibodies</t>
+          <t>Negative Anti-Scl-70 antibody</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A negative result for anti-Scl-70 antibodies significantly reduces the likelihood of Scleroderma.</t>
+          <t>A negative Anti-Scl-70 antibody test reduces the likelihood of scleroderma, especially diffuse cutaneous systemic sclerosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Presence of anti-Scl-70 antibodies</t>
+          <t>Positive ANA with nucleolar pattern</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti-Scl-70 antibodies are highly specific for Scleroderma and are found in a significant proportion of patients.</t>
+          <t>A nucleolar pattern on ANA testing is more specific for scleroderma compared to other autoimmune diseases.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal pulmonary function tests</t>
+          <t>Normal pulmonary function test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal pulmonary function tests suggest that there is no lung involvement, which is often seen in Scleroderma.</t>
+          <t>Normal pulmonary function tests make interstitial lung disease, a common complication of scleroderma, less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pulmonary function tests showing restrictive lung disease</t>
+          <t>Positive Anti-centromere antibody</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Restrictive lung disease is a common pulmonary complication of Scleroderma, indicating involvement of the lungs.</t>
+          <t>Anti-centromere antibodies are associated with limited cutaneous systemic sclerosis and are specific for scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negative ANA test</t>
+          <t>Negative Anti-centromere antibody</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A negative ANA test is a strong indicator against the presence of autoimmune diseases like Scleroderma.</t>
+          <t>A negative Anti-centromere antibody test reduces the likelihood of limited cutaneous systemic sclerosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Skin biopsy showing collagen deposition</t>
+          <t>Pulmonary function test showing restrictive lung disease</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A skin biopsy revealing collagen deposition is indicative of the fibrotic changes seen in Scleroderma.</t>
+          <t>Restrictive lung disease on pulmonary function tests is common in scleroderma due to interstitial lung disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal skin biopsy results</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal skin biopsy indicates the absence of the fibrotic changes characteristic of Scleroderma.</t>
+          <t>Normal esophageal manometry suggests the absence of esophageal involvement, which is common in scleroderma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Esophageal motility studies showing decreased peristalsis</t>
+          <t>Esophageal manometry showing hypomotility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Decreased peristalsis in the esophagus is a common gastrointestinal manifestation of Scleroderma.</t>
+          <t>Esophageal hypomotility is a common finding in scleroderma due to smooth muscle atrophy and fibrosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Negative ANA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies suggest that there is no gastrointestinal involvement, which is common in Scleroderma.</t>
+          <t>A negative ANA test makes the presence of an autoimmune disease like scleroderma less likely.</t>
         </is>
       </c>
     </row>
